--- a/brochures/excel/offshore/seapae/REACH.xlsx
+++ b/brochures/excel/offshore/seapae/REACH.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zchen\OneDrive - Amadeus Workplace\Desktop\Promotion\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelon\Documents\Code\ViskeeConsultancy\Viskee-Consultancy-Configuration\brochures\excel\offshore\seapae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_F25DC773A252ABDACC104856B95C5AF65BDE58E8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{13B8035A-4739-4B17-8867-CBE191A4190F}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="-105" windowWidth="22140" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="promotions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,27 +32,27 @@
     <t>link</t>
   </si>
   <si>
-    <t>REACH Non Coe Promotions Brochure.pdf</t>
-  </si>
-  <si>
-    <t>REACH Onshore CoE Promotions.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/AibtGlobal/Viskee-Consultancy-Configuration/raw/master/promotion/REACH-Non-CoE_promotions_flyer_Vol_1.1.pdf</t>
-  </si>
-  <si>
-    <t>https://github.com/AibtGlobal/Viskee-Consultancy-Configuration/raw/master/promotion/REACH-Onshore_CoE_Promotions.pdf</t>
+    <t>REACH Tuition Course Fees 2021.pdf</t>
+  </si>
+  <si>
+    <t>REACH Offshore Q4 Promotions Region 1.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Viskee-Consultancy/Viskee-Consultancy-Configuration/raw/master/brochures/pdf/offshore/seapae/reach/Reach_Tuition_Course_Fees_2021_v1.0.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/Viskee-Consultancy/Viskee-Consultancy-Configuration/raw/master/brochures/pdf/offshore/seapae/reach/Reach-Offshore-SEAPAE-Q4-Promotions-1OCT-31DEC21_VOL-1.1.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -61,8 +60,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -370,20 +376,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -391,7 +397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -399,7 +405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -408,6 +414,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
